--- a/src/bigdata/static/xlsx/ingestion.xlsx
+++ b/src/bigdata/static/xlsx/ingestion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>plataformas</t>
+          <t>desarrolladores</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>publicadores</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fechas_lanzamiento</t>
         </is>
       </c>
     </row>
@@ -476,12 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Lucid Sheep Games</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Lucid Sheep Games</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "April 12, 2018", "Europe": "April 12, 2018", "Australia": "April 12, 2018"}</t>
         </is>
       </c>
     </row>
@@ -501,12 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Beatshapers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Beatshapers</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "January 24, 2019", "Europe": "January 24, 2019", "Australia": "January 24, 2019"}</t>
         </is>
       </c>
     </row>
@@ -526,12 +541,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>QubicGames</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>QubicGames</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "August 9, 2019", "Europe": "August 9, 2019", "Australia": "August 9, 2019"}</t>
         </is>
       </c>
     </row>
@@ -551,12 +571,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Skobbejak Games</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Skobbejak Games</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "November 6, 2018", "Europe": "December 7, 2018", "Australia": "December 7, 2018"}</t>
         </is>
       </c>
     </row>
@@ -576,12 +601,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nintendo EPD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"Japan": "March 3, 2017", "NorthAmerica": "March 3, 2017", "Europe": "March 3, 2017", "Australia": "March 3, 2017"}</t>
         </is>
       </c>
     </row>
@@ -601,12 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Blue Print</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Blue Print</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"Japan": "December 21, 2017", "NorthAmerica": "January 25, 2018", "Europe": "February 22, 2018", "Australia": "February 22, 2018"}</t>
         </is>
       </c>
     </row>
@@ -626,12 +661,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nawia Games</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nawia Games</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "October 25, 2018", "Europe": "October 25, 2018", "Australia": "October 25, 2018"}</t>
         </is>
       </c>
     </row>
@@ -651,12 +691,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stains Games</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>HypeTrain Digital</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "March 5, 2019", "Europe": "March 5, 2019", "Australia": "March 5, 2019"}</t>
         </is>
       </c>
     </row>
@@ -676,12 +721,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Jetdogs, Zoom Out Games</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>JetDogs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "March 24, 2019", "Europe": "April 1, 2019", "Australia": "April 1, 2019"}</t>
         </is>
       </c>
     </row>
@@ -701,12 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Roman Uhilg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Roman Uhilg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"Japan": "April 26, 2018", "NorthAmerica": "April 27, 2018", "Europe": "April 27, 2018", "Australia": "April 27, 2018"}</t>
         </is>
       </c>
     </row>
@@ -726,12 +781,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Carlsen Games</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Carlsen Games</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "January 9, 2019", "Europe": "January 9, 2019", "Australia": "January 9, 2019"}</t>
         </is>
       </c>
     </row>
@@ -751,12 +811,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Andrade Games</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Korion</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "June 14, 2018", "Europe": "June 14, 2018", "Australia": "June 14, 2018"}</t>
         </is>
       </c>
     </row>
@@ -776,12 +841,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stories</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stories</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "August 2, 2018", "Europe": "August 2, 2018", "Australia": "August 2, 2018"}</t>
         </is>
       </c>
     </row>
@@ -801,12 +871,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Baltoro Games</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Baltoro Games</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "September 20, 2019", "Europe": "September 20, 2019", "Australia": "September 20, 2019"}</t>
         </is>
       </c>
     </row>
@@ -826,12 +901,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Millo Games</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Millo Games</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "December 23, 2019", "Europe": "December 23, 2019", "Australia": "December 23, 2019"}</t>
         </is>
       </c>
     </row>
@@ -851,12 +931,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>MidBoss</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>MidBoss</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{"Japan": "December 27, 2018", "NorthAmerica": "August 14, 2018", "Europe": "August 14, 2018", "Australia": "August 14, 2018"}</t>
         </is>
       </c>
     </row>
@@ -876,12 +961,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Batterystaple Games</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Batterystaple Games</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{"Japan": "July 10, 2018", "NorthAmerica": "July 10, 2018", "Europe": "July 10, 2018", "Australia": "July 10, 2018"}</t>
         </is>
       </c>
     </row>
@@ -901,12 +991,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digital Bards</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digital Bards</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{"Japan": "February 21, 2019", "NorthAmerica": "May 30, 2019", "Europe": "May 30, 2019", "Australia": "May 30, 2019"}</t>
         </is>
       </c>
     </row>
@@ -926,12 +1021,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Petite Games</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>JP: Rainy Frog, WW: Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{"Japan": "September 27, 2017", "NorthAmerica": "September 14, 2017", "Europe": "September 14, 2017", "Australia": "September 14, 2017"}</t>
         </is>
       </c>
     </row>
@@ -951,12 +1051,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Joindots</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Joindots</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{"Japan": "Unreleased", "NorthAmerica": "February 1, 2018", "Europe": "February 1, 2018", "Australia": "February 1, 2018"}</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/xlsx/ingestion.xlsx
+++ b/src/bigdata/static/xlsx/ingestion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3465,6 +3465,3006 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Arc of Alchemist</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Compile Heart</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Idea Factory</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>January 30, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Arcade Classics Anniversary Collection</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Konami</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Konami</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>April 18, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Arcade Love: Plus Pengo!</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Triangle Service</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Mebius</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Arena of Valor</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Multiplayer online battle arena</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Tencent</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Tencent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>September 25, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Ark: Survival Evolved</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Survival</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Studio Wildcard</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Studio Wildcard</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>November 30, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Armello</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Board game, role-playing</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>League of Geeks</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>League of Geeks</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>September 27, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Arms</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Nintendo EPD</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>June 16, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Art of Balance</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Shin'en Multimedia</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Shin'en Multimedia</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>October 4, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ary and the Secret of Seasons</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>eXiin, Fishing Cactus</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Modus Games</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ascendance</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Onevision Games</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Onevision Games</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>May 9, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Asdivine Dios</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>July 4, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Asdivine Hearts</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>April 12, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Asdivine Hearts II</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>January 24, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Asdivine Kamura</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>November 7, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Asdivine Menace</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>September 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ashen</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A44 Games</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Annapurna Interactive</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>December 9, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Asphalt 9: Legends</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Gameloft Barcelona</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Gameloft</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>October 8, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Assassin's Creed III Remastered</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ubisoft Montreal</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Ubisoft</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>May 21, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Assassin's Creed Odyssey</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ubisoft Quebec</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Ubisoft</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Assassin's Creed: The Rebel Collection</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ubisoft Montreal</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Ubisoft</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>December 6, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Assault Android Cactus+</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Shooter</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Witch Beam</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Witch Beam</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>March 8, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Asterix &amp; Obelix XXL 2: Mission: Las Vegum</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Microids</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Osome Studio</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>November 29, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Asterix &amp; Obelix XXL 3: The Crystal Menhir</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Microids</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Microids</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>November 21, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Astral Chain</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PlatinumGames</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>August 30, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Astro Bears Party</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Party</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>QubicGames</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>QubicGames</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>September 28, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Astro Duel Deluxe</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Shoot 'em up</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Panic Button</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Panic Button</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>May 30, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>At Sundown: Shots in the Dark</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Shooter</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Mild Beast Games</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Versus Evil</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>January 22, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Atari Flashback Classics</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Atari</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Atari</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>December 13, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Atelier Dusk Series Deluxe Pack</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>January 14, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Atelier Lulua: The Scion of Arland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>May 21, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Atelier Lydie &amp; Suelle: The Alchemists and the Mysterious Paintings</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>March 27, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Atelier Meruru: The Apprentice of Arland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>December 4, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Atelier Rorona: The Alchemist of Arland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>December 4, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Atelier Ryza: Ever Darkness &amp; the Secret Hideout</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Gust Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>October 29, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Atomik: RunGunJumpGun</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>thirtythreegames</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Gambitious</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>February 8, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Atomine</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Broken Arms Games</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MixedBag</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>May 25, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Attack on Titan 2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Hack and slash</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Omega Force</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>March 20, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Attack on Titan 2: Final Battle</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Hack and slash</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Omega Force</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Koei Tecmo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>July 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Attack of the Toy Tanks</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Action, arcade</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Petite Games</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>June 28, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Auto Chess</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Dragonest</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Dragonest</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Automachef</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Hermes Interactive</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Team17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>July 23, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Aviary Attorney: Definitive Edition</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sketchy Logic</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Vertical Reach</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>January 30, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>AVICII Invector</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rhythm</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Hello There</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Wired Productions</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Away: Journey to the Unexpected</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Roguelike</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Aurelien Regard</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>JP: Circle Entertainment, WW: Playdius Entertainment</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>February 7, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Awesome Pea</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sometimes You</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Sometimes You</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>March 1, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Axiom Verge</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Metroidvania</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Thomas Happ Games</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>BadLand Games</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>October 5, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Axiom Verge 2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Metroidvania</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Thomas Happ Games</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Thomas Happ Games</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ayakashi Koi Gikyoku: Forbidden Romance with Mysterious Spirit</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>OperaHouse Corporation</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Digimerce</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>August 2, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Azkend 2: The World Beneath</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10tons</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>10tons</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>January 12, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Azure Reflections</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Bullet hell</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Unties</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Unties</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>August 30, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Azure Saga: Pathfinder Deluxe Edition</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Toge Productions</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Toge Productions</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>March 21, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Azure Striker Gunvolt: Striker Pack</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Inti Creates</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Inti Creates</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>August 31, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Baba Is You</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Hempuli</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Hempuli</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>March 13, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Back in 1995</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Survival horror</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>May 23, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Bad Dream: Fever</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Forever Entertainment</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Forever Entertainment</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>March 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Bad North</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Real-time strategy, roguelike</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Plausible Concept</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Raw Fury</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>August 20, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>BAFL: Brakes Are for Losers</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Oudidon</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Playdius Entertainment</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>April 19, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bake 'N Switch</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Party</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Streamline Games</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Streamline Games</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Bakutsuri Hunters</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Bandai Namco Studios</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Bandai Namco Entertainment</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Baldur's Gate: Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Beamdog</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Skybound Games</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>October 15, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Baldur's Gate II: Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Beamdog</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Skybound Games</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>October 15, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Baldur's Gate: Siege of Dragonspear</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Beamdog</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Skybound Games</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>September 24, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Balthazar's Dream</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Dolores Entertainment</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Dolores Entertainment</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>November 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Ball Attraction</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Rising Win Tech</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Rising Win Tech</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>September 19, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>The Banner Saga</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Stoic Studio</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Versus Evil</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>May 17, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>The Banner Saga 2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Stoic Studio</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Versus Evil</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>June 7, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>The Banner Saga 3</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Stoic Studio</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Versus Evil</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>July 26, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Baobabs Mausoleum Ep.1: Ovnifagos Don't Eat Flamingos</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Adventure, point and click</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Celery Emblem</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Zerouno Games</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>May 24, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Baobabs Mausoleum Ep.2: 1313 Barnabas Dead End Drive</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Celery Emblem</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Zerouno Games</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>June 27, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Barbarous: Tavern of Emyr</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SQRT3</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>QubicGames</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>December 25, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Bard's Gold</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Pixel Lantern</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Pixel Lantern</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>March 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Baseball Riot</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Puzzle, sports</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10tons</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>10tons</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>January 19, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Bass Pro Shops: The Strike Championship Edition</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Saber Interactive</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Planet Entertainment</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>October 23, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Bastion</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Supergiant Games</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Supergiant Games</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>September 13, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Batman: The Enemy Within</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Telltale Games</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Telltale Games</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>October 2, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Batman: The Telltale Series</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Telltale Games</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Telltale Games</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>November 14, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Battery Jam</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Halseo</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Halseo</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>November 22, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Battlezone: Gold Edition</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Shooter</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Rebellion Developments</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Rebellion Developments</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>November 8, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Battle Chasers: Nightwar</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Airship Syndicate</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>THQ Nordic</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>May 15, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Battle Chef Brigade</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Trinket Studios</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Adult Swim Games</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>November 20, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Battle &amp; Crash</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sims</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Starsign</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>July 18, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Battle Group 2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Merge Games</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Merge Games</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>October 11, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Battle Princess Madelyn</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Causal Bit Games</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Causal Bit Games</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>December 20, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Battle Worlds: Kronos</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Turn-based strategy</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>King Art</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>THQ Nordic</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>June 11, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Battlloon</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Party</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>noname studio</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Sony Music Entertainment</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>February 28, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Bayala: The Game</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Ink Stains Games</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>HypeTrain Digital</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>March 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bayonetta</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Hack and slash</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PlatinumGames</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>February 16, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Bayonetta 2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Hack and slash</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>PlatinumGames</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>February 16, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Bayonetta 3</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Hack and slash</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>PlatinumGames</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Beach Buggy Racing</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Kart racing</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Vector Unit</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Vector Unit</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>September 14, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Bear With Me</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Adventure, point and click</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Exordium Games</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Exordium Games</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>July 9, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Bear With Me: The Lost Robots</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Adventure, point and click</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Exordium Games</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Exordium Games</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>July 31, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Beast Quest</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Torus Games</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Maximum Games</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>October 11, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Beat Cop</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Michael Hicks</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>11 Bit Studios</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>March 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bee Simulator</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Varsav Games</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Varsav Games</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>November 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Bendy and the Ink Machine</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Survival horror</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>TheMeatly Games</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Rooster Teeth Games</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>November 20, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Best Friend Forever</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Steve Jackson Games</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Asmodee</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>February 14, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Beyblade Burst Battle Zero</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>FuRyu</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>FuRyu</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Beyond Enemy Lines: Covert Operations</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>First-person shooter</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Polygon Art</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Polygon Art</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>April 23, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Beyond a Steel Sky</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Revolution Software</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Revolution Software</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
